--- a/output_files/all_shifts.xlsx
+++ b/output_files/all_shifts.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\LinkedIn Coures\python with excel\output_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ADB002-E58B-4A39-BF96-366CF26A47CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4452" yWindow="6396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -217,8 +223,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +287,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -327,7 +341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,9 +373,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,6 +425,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -568,14 +618,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -615,7 +667,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -635,7 +687,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -655,7 +707,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -675,7 +727,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -695,7 +747,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -715,7 +767,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -735,7 +787,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -755,7 +807,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -775,7 +827,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -795,7 +847,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -815,7 +867,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -835,7 +887,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -855,7 +907,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -875,7 +927,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -895,7 +947,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -915,7 +967,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -935,7 +987,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -955,7 +1007,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -975,7 +1027,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -995,7 +1047,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1015,7 +1067,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1035,7 +1087,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1055,7 +1107,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1075,7 +1127,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1095,7 +1147,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1115,7 +1167,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1135,7 +1187,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1155,7 +1207,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1175,7 +1227,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1195,7 +1247,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1215,7 +1267,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1235,7 +1287,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1255,7 +1307,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1275,7 +1327,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1295,7 +1347,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1315,7 +1367,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1335,7 +1387,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1355,7 +1407,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1375,7 +1427,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1395,7 +1447,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1415,7 +1467,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1435,7 +1487,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1455,7 +1507,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -1475,7 +1527,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1495,7 +1547,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
@@ -1515,7 +1567,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
@@ -1535,7 +1587,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -1555,7 +1607,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -1575,7 +1627,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1</v>
       </c>
@@ -1595,7 +1647,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1</v>
       </c>
@@ -1615,7 +1667,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
@@ -1635,7 +1687,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
@@ -1655,7 +1707,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -1675,7 +1727,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1</v>
       </c>
@@ -1695,7 +1747,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1</v>
       </c>
@@ -1715,7 +1767,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -1735,7 +1787,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -1755,7 +1807,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
@@ -1775,7 +1827,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1</v>
       </c>
@@ -1795,7 +1847,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1</v>
       </c>
@@ -1815,7 +1867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1</v>
       </c>
@@ -1835,7 +1887,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1</v>
       </c>
@@ -1855,7 +1907,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1</v>
       </c>
@@ -1875,7 +1927,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1</v>
       </c>
@@ -1895,7 +1947,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1</v>
       </c>
@@ -1915,7 +1967,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1</v>
       </c>
@@ -1935,7 +1987,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1</v>
       </c>
@@ -1955,7 +2007,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
@@ -1975,7 +2027,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1</v>
       </c>
@@ -1995,7 +2047,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2015,7 +2067,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2035,7 +2087,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2055,7 +2107,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2075,7 +2127,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2095,7 +2147,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1</v>
       </c>
@@ -2115,7 +2167,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1</v>
       </c>
@@ -2135,7 +2187,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1</v>
       </c>
@@ -2155,7 +2207,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1</v>
       </c>
@@ -2175,7 +2227,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1</v>
       </c>
@@ -2195,7 +2247,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1</v>
       </c>
@@ -2215,7 +2267,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1</v>
       </c>
@@ -2235,7 +2287,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1</v>
       </c>
@@ -2255,7 +2307,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1</v>
       </c>
@@ -2275,7 +2327,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1</v>
       </c>
@@ -2295,7 +2347,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1</v>
       </c>
@@ -2315,7 +2367,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1</v>
       </c>
@@ -2335,7 +2387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1</v>
       </c>
@@ -2355,7 +2407,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1</v>
       </c>
@@ -2375,7 +2427,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1</v>
       </c>
@@ -2395,7 +2447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1</v>
       </c>
@@ -2415,7 +2467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1</v>
       </c>
@@ -2435,7 +2487,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1</v>
       </c>
@@ -2455,7 +2507,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1</v>
       </c>
@@ -2475,7 +2527,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1</v>
       </c>
@@ -2495,7 +2547,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1</v>
       </c>
@@ -2515,7 +2567,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1</v>
       </c>
@@ -2535,7 +2587,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1</v>
       </c>
@@ -2555,7 +2607,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1</v>
       </c>
@@ -2575,7 +2627,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2</v>
       </c>
@@ -2595,7 +2647,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2</v>
       </c>
@@ -2615,7 +2667,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2</v>
       </c>
@@ -2635,7 +2687,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2</v>
       </c>
@@ -2655,7 +2707,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2</v>
       </c>
@@ -2675,7 +2727,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2</v>
       </c>
@@ -2695,7 +2747,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2</v>
       </c>
@@ -2715,7 +2767,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2</v>
       </c>
@@ -2735,7 +2787,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2</v>
       </c>
@@ -2755,7 +2807,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2</v>
       </c>
@@ -2775,7 +2827,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2</v>
       </c>
@@ -2795,7 +2847,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2</v>
       </c>
@@ -2815,7 +2867,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2</v>
       </c>
@@ -2835,7 +2887,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2</v>
       </c>
@@ -2855,7 +2907,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2</v>
       </c>
@@ -2875,7 +2927,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2</v>
       </c>
@@ -2895,7 +2947,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2</v>
       </c>
@@ -2915,7 +2967,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2</v>
       </c>
@@ -2935,7 +2987,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2</v>
       </c>
@@ -2955,7 +3007,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2</v>
       </c>
@@ -2975,7 +3027,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2</v>
       </c>
@@ -2995,7 +3047,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2</v>
       </c>
@@ -3015,7 +3067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2</v>
       </c>
@@ -3035,7 +3087,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2</v>
       </c>
@@ -3055,7 +3107,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2</v>
       </c>
@@ -3075,7 +3127,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2</v>
       </c>
@@ -3095,7 +3147,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2</v>
       </c>
@@ -3115,7 +3167,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2</v>
       </c>
@@ -3135,7 +3187,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2</v>
       </c>
@@ -3155,7 +3207,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2</v>
       </c>
@@ -3175,7 +3227,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2</v>
       </c>
@@ -3195,7 +3247,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2</v>
       </c>
@@ -3215,7 +3267,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2</v>
       </c>
@@ -3235,7 +3287,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2</v>
       </c>
@@ -3255,7 +3307,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2</v>
       </c>
@@ -3275,7 +3327,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2</v>
       </c>
@@ -3295,7 +3347,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2</v>
       </c>
@@ -3315,7 +3367,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2</v>
       </c>
@@ -3335,7 +3387,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2</v>
       </c>
@@ -3355,7 +3407,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2</v>
       </c>
@@ -3375,7 +3427,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2</v>
       </c>
@@ -3395,7 +3447,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2</v>
       </c>
@@ -3415,7 +3467,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2</v>
       </c>
@@ -3435,7 +3487,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2</v>
       </c>
@@ -3455,7 +3507,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2</v>
       </c>
@@ -3475,7 +3527,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2</v>
       </c>
@@ -3495,7 +3547,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2</v>
       </c>
@@ -3515,7 +3567,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2</v>
       </c>
@@ -3535,7 +3587,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2</v>
       </c>
@@ -3555,7 +3607,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2</v>
       </c>
@@ -3575,7 +3627,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2</v>
       </c>
@@ -3595,7 +3647,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2</v>
       </c>
@@ -3615,7 +3667,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2</v>
       </c>
@@ -3635,7 +3687,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2</v>
       </c>
@@ -3655,7 +3707,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2</v>
       </c>
@@ -3675,7 +3727,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2</v>
       </c>
@@ -3695,7 +3747,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>2</v>
       </c>
@@ -3715,7 +3767,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>2</v>
       </c>
@@ -3735,7 +3787,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2</v>
       </c>
@@ -3755,7 +3807,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>2</v>
       </c>
@@ -3775,7 +3827,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2</v>
       </c>
@@ -3795,7 +3847,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2</v>
       </c>
@@ -3815,7 +3867,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2</v>
       </c>
@@ -3835,7 +3887,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>2</v>
       </c>
@@ -3855,7 +3907,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>2</v>
       </c>
@@ -3875,7 +3927,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2</v>
       </c>
@@ -3895,7 +3947,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>2</v>
       </c>
@@ -3915,7 +3967,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>2</v>
       </c>
@@ -3935,7 +3987,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>2</v>
       </c>
@@ -3955,7 +4007,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2</v>
       </c>
@@ -3975,7 +4027,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>2</v>
       </c>
@@ -3995,7 +4047,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>2</v>
       </c>
@@ -4015,7 +4067,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>2</v>
       </c>
@@ -4035,7 +4087,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>2</v>
       </c>
@@ -4055,7 +4107,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>2</v>
       </c>
@@ -4075,7 +4127,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>2</v>
       </c>
@@ -4095,7 +4147,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>2</v>
       </c>
@@ -4115,7 +4167,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>2</v>
       </c>
@@ -4135,7 +4187,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>2</v>
       </c>
@@ -4155,7 +4207,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>2</v>
       </c>
@@ -4175,7 +4227,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>2</v>
       </c>
@@ -4195,7 +4247,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>2</v>
       </c>
@@ -4215,7 +4267,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>2</v>
       </c>
@@ -4235,7 +4287,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>2</v>
       </c>
@@ -4255,7 +4307,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>2</v>
       </c>
@@ -4275,7 +4327,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>2</v>
       </c>
@@ -4295,7 +4347,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>2</v>
       </c>
@@ -4315,7 +4367,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>2</v>
       </c>
@@ -4335,7 +4387,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>2</v>
       </c>
@@ -4355,7 +4407,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>2</v>
       </c>
@@ -4375,7 +4427,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>2</v>
       </c>
@@ -4395,7 +4447,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>2</v>
       </c>
@@ -4415,7 +4467,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>2</v>
       </c>
@@ -4435,7 +4487,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>2</v>
       </c>
@@ -4455,7 +4507,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2</v>
       </c>
@@ -4475,7 +4527,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>2</v>
       </c>
@@ -4495,7 +4547,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>2</v>
       </c>
@@ -4515,7 +4567,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>2</v>
       </c>
@@ -4535,7 +4587,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>2</v>
       </c>
@@ -4555,7 +4607,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>2</v>
       </c>
@@ -4575,7 +4627,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>3</v>
       </c>
@@ -4595,7 +4647,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>3</v>
       </c>
@@ -4615,7 +4667,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>3</v>
       </c>
@@ -4635,7 +4687,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>3</v>
       </c>
@@ -4655,7 +4707,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>3</v>
       </c>
@@ -4675,7 +4727,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>3</v>
       </c>
@@ -4695,7 +4747,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>3</v>
       </c>
@@ -4715,7 +4767,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>3</v>
       </c>
@@ -4735,7 +4787,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>3</v>
       </c>
@@ -4755,7 +4807,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>3</v>
       </c>
@@ -4775,7 +4827,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>3</v>
       </c>
@@ -4795,7 +4847,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>3</v>
       </c>
@@ -4815,7 +4867,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>3</v>
       </c>
@@ -4835,7 +4887,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>3</v>
       </c>
@@ -4855,7 +4907,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>3</v>
       </c>
@@ -4875,7 +4927,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>3</v>
       </c>
@@ -4895,7 +4947,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>3</v>
       </c>
@@ -4915,7 +4967,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>3</v>
       </c>
@@ -4935,7 +4987,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>3</v>
       </c>
@@ -4955,7 +5007,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>3</v>
       </c>
@@ -4975,7 +5027,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>3</v>
       </c>
@@ -4995,7 +5047,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>3</v>
       </c>
@@ -5015,7 +5067,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>3</v>
       </c>
@@ -5035,7 +5087,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>3</v>
       </c>
@@ -5055,7 +5107,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>3</v>
       </c>
@@ -5075,7 +5127,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>3</v>
       </c>
@@ -5095,7 +5147,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>3</v>
       </c>
@@ -5115,7 +5167,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>3</v>
       </c>
@@ -5135,7 +5187,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>3</v>
       </c>
@@ -5155,7 +5207,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>3</v>
       </c>
@@ -5175,7 +5227,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>3</v>
       </c>
@@ -5195,7 +5247,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>3</v>
       </c>
@@ -5215,7 +5267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>3</v>
       </c>
@@ -5235,7 +5287,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>3</v>
       </c>
@@ -5255,7 +5307,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>3</v>
       </c>
@@ -5275,7 +5327,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>3</v>
       </c>
@@ -5295,7 +5347,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>3</v>
       </c>
@@ -5315,7 +5367,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>3</v>
       </c>
@@ -5335,7 +5387,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>3</v>
       </c>
@@ -5355,7 +5407,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>3</v>
       </c>
@@ -5375,7 +5427,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>3</v>
       </c>
@@ -5395,7 +5447,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>3</v>
       </c>
@@ -5415,7 +5467,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>3</v>
       </c>
@@ -5435,7 +5487,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>3</v>
       </c>
@@ -5455,7 +5507,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>3</v>
       </c>
@@ -5475,7 +5527,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>3</v>
       </c>
@@ -5495,7 +5547,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>3</v>
       </c>
@@ -5515,7 +5567,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>3</v>
       </c>
@@ -5535,7 +5587,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>3</v>
       </c>
@@ -5555,7 +5607,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>3</v>
       </c>
@@ -5575,7 +5627,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>3</v>
       </c>
@@ -5595,7 +5647,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>3</v>
       </c>
@@ -5615,7 +5667,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>3</v>
       </c>
@@ -5635,7 +5687,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>3</v>
       </c>
@@ -5655,7 +5707,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>3</v>
       </c>
@@ -5675,7 +5727,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>3</v>
       </c>
@@ -5695,7 +5747,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>3</v>
       </c>
@@ -5715,7 +5767,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>3</v>
       </c>
@@ -5735,7 +5787,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>3</v>
       </c>
@@ -5755,7 +5807,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>3</v>
       </c>
@@ -5775,7 +5827,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>3</v>
       </c>
@@ -5795,7 +5847,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>3</v>
       </c>
@@ -5815,7 +5867,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>3</v>
       </c>
@@ -5835,7 +5887,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>3</v>
       </c>
@@ -5855,7 +5907,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>3</v>
       </c>
@@ -5875,7 +5927,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>3</v>
       </c>
@@ -5895,7 +5947,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>3</v>
       </c>
@@ -5915,7 +5967,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>3</v>
       </c>
@@ -5935,7 +5987,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>3</v>
       </c>
@@ -5955,7 +6007,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>3</v>
       </c>
@@ -5975,7 +6027,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>3</v>
       </c>
@@ -5995,7 +6047,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>3</v>
       </c>
@@ -6015,7 +6067,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>3</v>
       </c>
@@ -6035,7 +6087,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>3</v>
       </c>
@@ -6055,7 +6107,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>3</v>
       </c>
@@ -6075,7 +6127,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>3</v>
       </c>
@@ -6095,7 +6147,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>3</v>
       </c>
@@ -6115,7 +6167,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>3</v>
       </c>
@@ -6135,7 +6187,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>3</v>
       </c>
@@ -6155,7 +6207,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>3</v>
       </c>
@@ -6175,7 +6227,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>3</v>
       </c>
@@ -6195,7 +6247,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>3</v>
       </c>
@@ -6215,7 +6267,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>3</v>
       </c>
@@ -6235,7 +6287,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>3</v>
       </c>
@@ -6255,7 +6307,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>3</v>
       </c>
@@ -6275,7 +6327,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>3</v>
       </c>
@@ -6295,7 +6347,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>3</v>
       </c>
@@ -6315,7 +6367,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>3</v>
       </c>
@@ -6335,7 +6387,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>3</v>
       </c>
@@ -6355,7 +6407,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>3</v>
       </c>
@@ -6375,7 +6427,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>3</v>
       </c>
@@ -6395,7 +6447,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>3</v>
       </c>
@@ -6415,7 +6467,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>3</v>
       </c>
@@ -6435,7 +6487,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>3</v>
       </c>
@@ -6455,7 +6507,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>3</v>
       </c>
@@ -6475,7 +6527,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>3</v>
       </c>
@@ -6495,7 +6547,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>3</v>
       </c>
@@ -6515,7 +6567,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>3</v>
       </c>
@@ -6535,7 +6587,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>3</v>
       </c>
